--- a/9tuien.xlsx
+++ b/9tuien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ArnoD\Documents\GitHub\brug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F71DE2-62CB-4A96-BC90-E1A5B3E17E69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11EFBD8-4623-4D72-856C-72F159DCA58D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="756" windowWidth="12960" windowHeight="8964" xr2:uid="{BDB43719-9706-4499-9112-A0D8F1E8A837}"/>
+    <workbookView xWindow="696" yWindow="1452" windowWidth="12960" windowHeight="8964" xr2:uid="{3C510ECA-64BF-4125-A498-57D526B01363}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -379,7 +379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E451B87-997C-4E2F-8B74-37A6A2325343}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1954D436-D6E3-40E9-8B76-67AEDC13C546}">
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -446,114 +446,114 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>-69.925095695733901</v>
+        <v>99.380798999990645</v>
       </c>
       <c r="B2">
-        <v>-69.925095695733901</v>
+        <v>99.380798999990645</v>
       </c>
       <c r="C2">
-        <v>-69.925095695733901</v>
+        <v>99.380798999990645</v>
       </c>
       <c r="D2">
-        <v>-69.925095695733901</v>
+        <v>99.380798999990645</v>
       </c>
       <c r="E2">
-        <v>-69.925095695733901</v>
+        <v>99.380798999990645</v>
       </c>
       <c r="F2">
-        <v>-384.58802632653646</v>
+        <v>546.59439449994863</v>
       </c>
       <c r="G2">
-        <v>-69.925095695733901</v>
+        <v>99.380798999990645</v>
       </c>
       <c r="H2">
-        <v>-69.925095695733901</v>
+        <v>99.380798999990645</v>
       </c>
       <c r="I2">
-        <v>-69.925095695733901</v>
+        <v>99.380798999990645</v>
       </c>
       <c r="J2">
-        <v>-69.925095695733901</v>
+        <v>99.380798999990645</v>
       </c>
       <c r="K2">
-        <v>-69.925095695733901</v>
+        <v>99.380798999990645</v>
       </c>
       <c r="L2">
-        <v>-69.925095695733901</v>
+        <v>99.380798999990645</v>
       </c>
       <c r="M2">
-        <v>-69.925095695733901</v>
+        <v>99.380798999990645</v>
       </c>
       <c r="N2">
-        <v>-69.925095695733901</v>
+        <v>99.380798999990645</v>
       </c>
       <c r="O2">
-        <v>-69.925095695733901</v>
+        <v>99.380798999990645</v>
       </c>
       <c r="P2">
-        <v>-69.925095695733901</v>
+        <v>99.380798999990645</v>
       </c>
       <c r="Q2">
-        <v>-69.925095695733901</v>
+        <v>99.380798999990645</v>
       </c>
       <c r="R2">
-        <v>-69.925095695733901</v>
+        <v>99.380798999990645</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-53.98342677231814</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="B3">
-        <v>-53.98342677231814</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="C3">
-        <v>-53.98342677231814</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="D3">
-        <v>-53.98342677231814</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="E3">
-        <v>-53.98342677231814</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="F3">
-        <v>-296.9088472477498</v>
+        <v>488.88888888888891</v>
       </c>
       <c r="G3">
-        <v>-53.98342677231814</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="H3">
-        <v>-53.98342677231814</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="I3">
-        <v>-53.98342677231814</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="J3">
-        <v>-53.98342677231814</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="K3">
-        <v>-53.98342677231814</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="L3">
-        <v>-53.98342677231814</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="M3">
-        <v>-53.98342677231814</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="N3">
-        <v>-53.98342677231814</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="O3">
-        <v>-53.98342677231814</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="P3">
-        <v>-53.98342677231814</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="Q3">
-        <v>-53.98342677231814</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="R3">
-        <v>-53.98342677231814</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
   </sheetData>
